--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -49,73 +52,79 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
+    <t>salad</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>perfectly</t>
@@ -124,27 +133,18 @@
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -160,24 +160,18 @@
     <t>tea</t>
   </si>
   <si>
-    <t>day</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
@@ -187,22 +181,25 @@
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
     <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
   </si>
   <si>
     <t>like</t>
@@ -572,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -637,8 +634,32 @@
       </c>
     </row>
     <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.2868217054263566</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>92</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -664,7 +685,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>0.956989247311828</v>
@@ -690,16 +711,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>0.9140625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,21 +732,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -737,21 +758,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8591331269349846</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -763,21 +784,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>91</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8452012383900929</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>546</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>546</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -789,12 +810,12 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9">
         <v>0.7954545454545454</v>
@@ -820,16 +841,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7662337662337663</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L10">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -841,21 +862,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7056277056277056</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -867,21 +888,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>0.704225352112676</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -893,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6888888888888889</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -919,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6470588235294118</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -945,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6461538461538462</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -971,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6438356164383562</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -997,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6406779661016949</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L17">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1023,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L18">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1049,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6348314606741573</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>791</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>791</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1075,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>455</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6326530612244898</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1101,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6285714285714286</v>
+        <v>0.59375</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1132,16 +1153,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22">
-        <v>0.6111111111111112</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1153,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1179,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5614035087719298</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1205,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1231,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5301204819277109</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1257,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5288461538461539</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1283,47 +1304,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>34</v>
-      </c>
-      <c r="K28">
-        <v>0.5131578947368421</v>
-      </c>
-      <c r="L28">
-        <v>39</v>
-      </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4871794871794872</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1335,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4850299401197605</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L30">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1361,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4769230769230769</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1387,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4586466165413534</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L32">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1413,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4156626506024096</v>
+        <v>0.42</v>
       </c>
       <c r="L33">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1439,12 +1460,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K34">
         <v>0.4074074074074074</v>
@@ -1470,16 +1491,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3947368421052632</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1491,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>0.39</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1517,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>61</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3382352941176471</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1543,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>270</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3153153153153153</v>
+        <v>0.311284046692607</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1569,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>0.311284046692607</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L39">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1595,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>177</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>0.3082706766917293</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L40">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1621,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>0.302158273381295</v>
+        <v>0.2643835616438356</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1647,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>97</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>0.297029702970297</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1673,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2631578947368421</v>
+        <v>0.2314316469321852</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="M43">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1699,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>154</v>
+        <v>714</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2616438356164383</v>
+        <v>0.2296650717703349</v>
       </c>
       <c r="L44">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1725,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>539</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2378902045209903</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L45">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="M45">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1751,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>708</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2251655629139073</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1777,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>117</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1946308724832215</v>
+        <v>0.1547314578005115</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1803,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>120</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1912225705329154</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L48">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M48">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1829,47 +1850,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K49">
-        <v>0.176158940397351</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="L49">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="M49">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>622</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1662404092071611</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L50">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1881,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>652</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1362530413625304</v>
+        <v>0.1143552311435523</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1907,47 +1928,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K52">
-        <v>0.127027027027027</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M52">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>323</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1237113402061856</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1959,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>255</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1068181818181818</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L54">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -1985,47 +2006,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K55">
-        <v>0.08991228070175439</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>415</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K56">
-        <v>0.08591885441527446</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="M56">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2037,85 +2058,33 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>383</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K57">
-        <v>0.06312769010043041</v>
+        <v>0.02943722943722944</v>
       </c>
       <c r="L57">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K58">
-        <v>0.05415499533146592</v>
-      </c>
-      <c r="L58">
-        <v>58</v>
-      </c>
-      <c r="M58">
-        <v>59</v>
-      </c>
-      <c r="N58">
-        <v>0.98</v>
-      </c>
-      <c r="O58">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K59">
-        <v>0.02854671280276817</v>
-      </c>
-      <c r="L59">
-        <v>33</v>
-      </c>
-      <c r="M59">
-        <v>34</v>
-      </c>
-      <c r="N59">
-        <v>0.97</v>
-      </c>
-      <c r="O59">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
